--- a/数据整理/stocks/港股/00939-建设银行.xlsx
+++ b/数据整理/stocks/港股/00939-建设银行.xlsx
@@ -451,1135 +451,1533 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.5292</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.8507</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.6949</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>14.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0569</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>14.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9780</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7674</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011081</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7674</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6064</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>61.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5463</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4579</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>100.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>13.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1706</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>13.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>12.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160925</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>95.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>006778</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>广发恒生中国企业精明指数（QDII）A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>93.13</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>8.29</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>96.09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159963</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005883</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝港股通香港精选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>006779</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>广发恒生中国企业精明指数（QDII）C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>93.13</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>8.29</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>161714</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商标普金砖四国指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>95.54</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>010789</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>汇添富恒生指数（QDII-LOF）C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>93.97</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>5.46</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>159920</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏恒生ETF(QDII)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>91.45</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160924</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成恒生指数（QDII-LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>164705</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇添富恒生指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>510900</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达恒生国企(QDII-ETF)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>98.44</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>8.56</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>75.25</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>161714</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商标普金砖四国指数(QDII-LOF)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>95.54</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008973</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005707</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国港股通量化精选股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>91.60</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006106</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>景顺长城量化港股通股票</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>87.87</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006355</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>95.01</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>8.85</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006809</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>13.76</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006810</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>13.76</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007107</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>92.96</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>12.36</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007108</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>12.36</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>010365</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>95.82</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>14.34</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>159954</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>南方恒生中国企业ETF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>100.44</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>8.72</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>501309</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>国泰恒生港股通指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>93.06</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>513680</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>建信港股通恒生中国企业ETF</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>95.54</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>9.06</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>513990</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>招商上证港股通ETF</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>96.09</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>008407</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>008408</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>008973</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>大成中华沪深港300指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>94.11</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009896</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>广发港股通成长精选股票A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>61.76</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>009897</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>广发港股通成长精选股票C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>61.76</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>159960</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>平安港股通恒生中国企业ETF</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>97.70</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>8.48</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>160925</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>大成中华沪深港300指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>94.11</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>166402</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>501025</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>95.82</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>14.34</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>513660</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>华夏沪港通恒生ETF</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>97.12</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>159963</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>富国恒生中国企业ETF</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>99.29</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>8.55</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>501301</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>95.01</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>8.85</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>513600</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>南方恒生ETF</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>98.01</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>007110</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>国投瑞银港股通价值发现混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>88.79</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>011081</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>国投瑞银港股通混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>88.79</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>005255</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>浦银安盛港股通量化优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>92.69</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>005269</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>华泰柏瑞港股通量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>92.09</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>005883</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>华宝港股通香港精选混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>89.94</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>006477</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>中邮沪港深精选混合</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>75.25</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1589,7 +1987,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1610,15 +2008,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1630,26 +2038,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501301</t>
+          <t>510900</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+          <t>易方达恒生国企(QDII-ETF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>102.81</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9.57</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.5949</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1658,26 +2076,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006355</t>
+          <t>159920</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+          <t>华夏恒生ETF(QDII)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>126.61</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9.57</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.0142</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1686,26 +2114,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005659</t>
+          <t>513550</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方恒生ETF联接C</t>
+          <t>华泰柏瑞中证港股通50ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>67.94</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9.57</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.3889</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1714,26 +2152,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>513600</t>
+          <t>009896</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方恒生ETF</t>
+          <t>广发港股通成长精选股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>97.13</t>
+          <t>59.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.9776</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1742,26 +2190,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001878</t>
+          <t>010041</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实沪港深精选股票</t>
+          <t>嘉实港股优势混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.73</t>
+          <t>76.49</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>68.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.3273</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1770,26 +2228,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>166402</t>
+          <t>010761</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+          <t>华商甄选回报混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.61</t>
+          <t>55.45</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.43</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.7559</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1808,15 +2276,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>95.00</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>14.47</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9260</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1826,26 +2304,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010365</t>
+          <t>001878</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+          <t>嘉实沪港深精选股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>39.94</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>14.47</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1063</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1854,26 +2342,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007110</t>
+          <t>010365</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国投瑞银港股通价值发现混合</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>71.81</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0664</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1882,26 +2380,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000927</t>
+          <t>513660</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+          <t>华夏沪港通恒生ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90.09</t>
+          <t>17.48</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0243</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1910,26 +2418,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>050015</t>
+          <t>262001</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+          <t>景顺长城大中华混合(QDII)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>90.09</t>
+          <t>18.62</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0241</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1938,26 +2456,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002653</t>
+          <t>010671</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>泰康沪港深精选灵活配置混合</t>
+          <t>景顺长城大中华混合(QDII)美元</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>88.75</t>
+          <t>18.62</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0241</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1966,26 +2494,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005269</t>
+          <t>010744</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通量化灵活配置混合</t>
+          <t>工银瑞信灵动价值混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>92.73</t>
+          <t>40.58</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
+          <t>47.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8765</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1994,26 +2532,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>161910</t>
+          <t>007110</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>万家新机遇价值驱动灵活配置混合A</t>
+          <t>国投瑞银港股通价值发现混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>22.49</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>71.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8569</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -2022,26 +2570,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>006085</t>
+          <t>009897</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>万家新机遇价值驱动灵活配置混合C</t>
+          <t>广发港股通成长精选股票C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6579</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -2050,26 +2608,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>164705</t>
+          <t>159960</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>汇添富恒生指数（QDII-LOF）A</t>
+          <t>平安港股通恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5730</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -2078,26 +2646,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010789</t>
+          <t>010042</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>汇添富恒生指数（QDII-LOF）C</t>
+          <t>嘉实港股优势混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>4</v>
+          <t>68.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4085</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -2106,26 +2684,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>006106</t>
+          <t>002653</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>景顺长城量化港股通股票</t>
+          <t>泰康沪港深精选灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>86.66</t>
+          <t>13.19</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3535</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -2134,26 +2722,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009896</t>
+          <t>006809</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>广发港股通成长精选股票A</t>
+          <t>泰康港股通中证香港银行投资指数A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>90.68</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3137</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -2162,26 +2760,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009897</t>
+          <t>159954</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>广发港股通成长精选股票C</t>
+          <t>南方恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>90.68</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3024</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -2190,26 +2798,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>262001</t>
+          <t>007354</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)</t>
+          <t>创金合信港股通量化股票A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>85.28</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>2</v>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2496</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -2218,26 +2836,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>010041</t>
+          <t>161910</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>嘉实港股优势混合A</t>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>68.09</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>5</v>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2494</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -2246,26 +2874,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010042</t>
+          <t>501301</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>嘉实港股优势混合C</t>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>68.09</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>5</v>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2249</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2274,26 +2912,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>006477</t>
+          <t>513600</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中邮沪港深精选混合</t>
+          <t>南方恒生ETF</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>79.88</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>7</v>
+          <t>97.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2173</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -2302,25 +2950,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>006778</t>
+          <t>160717</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>广发恒生中国企业精明指数（QDII）A</t>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>93.56</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>8.78</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1992</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2330,25 +2988,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>006779</t>
+          <t>006810</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>广发恒生中国企业精明指数（QDII）C</t>
+          <t>泰康港股通中证香港银行投资指数C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>93.56</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>8.78</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1343</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2358,26 +3026,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>006809</t>
+          <t>164705</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>13.70</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>2</v>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -2386,26 +3064,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>006810</t>
+          <t>007107</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
+          <t>太平 MSCI 香港价值增强指数A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>13.70</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>2</v>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>12.57</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -2414,26 +3102,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>007107</t>
+          <t>501310</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12.57</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>1</v>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -2442,26 +3140,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>007108</t>
+          <t>513990</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
+          <t>招商上证港股通ETF</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12.57</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
+          <t>97.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -2470,26 +3178,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>501309</t>
+          <t>006085</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>国泰恒生港股通指数（LOF）</t>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>93.07</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>5</v>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -2498,26 +3216,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>501310</t>
+          <t>010745</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+          <t>工银瑞信灵动价值混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>3</v>
+          <t>47.66</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -2526,26 +3254,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>007397</t>
+          <t>008407</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>3</v>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -2554,26 +3292,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>010671</t>
+          <t>160924</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
+          <t>大成恒生指数（QDII-LOF）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>85.28</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>2</v>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -2582,26 +3330,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>010744</t>
+          <t>000927</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>工银瑞信灵动价值混合A</t>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>47.66</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>4</v>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -2610,26 +3368,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>010745</t>
+          <t>050015</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>工银瑞信灵动价值混合C</t>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>47.66</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>4</v>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -2638,25 +3406,35 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>010761</t>
+          <t>006355</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>华商甄选回报混合</t>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>74.57</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2666,26 +3444,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>007354</t>
+          <t>513680</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>创金合信港股通量化股票A</t>
+          <t>建信港股通恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>88.95</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>6</v>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -2694,26 +3482,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>007357</t>
+          <t>006778</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>创金合信港股通量化股票C</t>
+          <t>广发恒生中国企业精明指数（QDII）A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>88.95</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>6</v>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -2722,26 +3520,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>510900</t>
+          <t>005659</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>易方达恒生国企(QDII-ETF)</t>
+          <t>南方恒生ETF联接C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>97.45</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>8.36</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>2</v>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -2750,26 +3558,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>513550</t>
+          <t>006106</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证港股通50ETF</t>
+          <t>景顺长城量化港股通股票</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>98.02</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>6.46</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>5</v>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -2778,26 +3596,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>513660</t>
+          <t>160925</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>华夏沪港通恒生ETF</t>
+          <t>大成中华沪深港300指数（LOF）A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>97.04</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>5</v>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -2806,25 +3634,35 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>513680</t>
+          <t>159963</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>建信港股通恒生中国企业ETF</t>
+          <t>富国恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>91.95</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2834,25 +3672,35 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>513990</t>
+          <t>501309</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>招商上证港股通ETF</t>
+          <t>国泰恒生港股通指数（LOF）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>97.24</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2862,26 +3710,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>159920</t>
+          <t>005269</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>华夏恒生ETF(QDII)</t>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>4</v>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -2890,25 +3748,35 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>159954</t>
+          <t>166402</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>南方恒生中国企业ETF</t>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>99.38</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>8.59</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2918,26 +3786,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>159960</t>
+          <t>005707</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>平安港股通恒生中国企业ETF</t>
+          <t>富国港股通量化精选股票</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>96.87</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>9.44</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>2</v>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -2946,26 +3824,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>159963</t>
+          <t>007357</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>富国恒生中国企业ETF</t>
+          <t>创金合信港股通量化股票C</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>98.04</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>8.39</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>2</v>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="50">
@@ -2974,26 +3862,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>160717</t>
+          <t>007397</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>8.13</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>2</v>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -3002,26 +3900,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>160924</t>
+          <t>005883</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>大成恒生指数（QDII-LOF）</t>
+          <t>华宝港股通香港精选混合</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>4</v>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -3030,26 +3938,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>160925</t>
+          <t>006779</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>大成中华沪深港300指数（LOF）A</t>
+          <t>广发恒生中国企业精明指数（QDII）C</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>7</v>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -3058,26 +3976,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>008973</t>
+          <t>010789</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>大成中华沪深港300指数(LOF)C</t>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>7</v>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -3086,25 +4014,35 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>005707</t>
+          <t>008408</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>富国港股通量化精选股票</t>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>89.15</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3114,26 +4052,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>005883</t>
+          <t>006477</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>华宝港股通香港精选混合</t>
+          <t>中邮沪港深精选混合</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>74.11</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>6</v>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -3142,26 +4090,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>008407</t>
+          <t>008973</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+          <t>大成中华沪深港300指数(LOF)C</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>94.40</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>4</v>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -3170,26 +4128,30 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>008408</t>
+          <t>007108</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>4</v>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>12.57</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00939-建设银行.xlsx
+++ b/数据整理/stocks/港股/00939-建设银行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4136,7 +4137,6 @@
           <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
           <t>93.66</t>
@@ -4151,6 +4151,2340 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4191</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>101.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.8004</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>74.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0616</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.0584</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>47.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5318</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1130</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8218</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0684</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0482</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6796</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>67.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5898</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5630</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4784</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3568</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3202</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2295</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2283</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>14.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2043</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2031</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1982</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1914</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1702</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>517000</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>517080</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1281</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>517100</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>14.39</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>95.30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006778</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>160925</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.22</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005883</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华宝港股通香港精选混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>517170</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏中证沪港深500交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006779</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>517060</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华宝中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008973</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
         <v>1</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00939-建设银行.xlsx
+++ b/数据整理/stocks/港股/00939-建设银行.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6491,4 +6492,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>60</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>56</v>
+      </c>
+      <c r="D3" t="n">
+        <v>43.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00939-建设银行.xlsx
+++ b/数据整理/stocks/港股/00939-建设银行.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6500,7 +6501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6511,17 +6512,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6531,14 +6552,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>60</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30.85</v>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2366</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -6547,14 +6590,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>56</v>
-      </c>
-      <c r="D3" t="n">
-        <v>43.85</v>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>116.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.9586</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -6563,13 +6628,1843 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1137</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4605</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>14.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1766</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7494</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>14.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6376</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6264</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4497</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3520</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2649</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2060</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>14.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2008</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1968</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1771</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>14.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>517000</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>517080</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>517100</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>517010</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达中证沪港深500交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>160925</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006778</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006779</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>65.46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>517170</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏中证沪港深500交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>97.51</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>517060</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华宝中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008973</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>48</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>56</v>
+      </c>
+      <c r="D4" t="n">
+        <v>43.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>39</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>24.76</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00939-建设银行.xlsx
+++ b/数据整理/stocks/港股/00939-建设银行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8379,7 +8380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8390,17 +8391,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8410,14 +8431,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>48</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21.38</v>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.3647</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -8426,14 +8469,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>60</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30.85</v>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>151.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.5352</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -8442,14 +8507,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>56</v>
-      </c>
-      <c r="D4" t="n">
-        <v>43.85</v>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0551</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -8458,13 +8545,2125 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3930</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0727</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8619</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5009</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5009</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4857</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3807</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3139</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>103.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2941</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2910</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>14.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2828</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2061</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1911</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1363</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>14.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014746</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>517000</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>517080</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>517100</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.21</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014747</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>96.48</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>96.77</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>160925</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>517010</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>易方达中证沪港深500交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>517170</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏中证沪港深500交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>37.77</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008973</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>56</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>60</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>56</v>
+      </c>
+      <c r="D5" t="n">
+        <v>43.85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>39</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>24.76</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00939-建设银行.xlsx
+++ b/数据整理/stocks/港股/00939-建设银行.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10562,7 +10563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10573,17 +10574,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10593,14 +10614,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>56</v>
-      </c>
-      <c r="D2" t="n">
-        <v>26.47</v>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>104.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.2808</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -10609,14 +10652,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>48</v>
-      </c>
-      <c r="D3" t="n">
-        <v>21.38</v>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>149.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.4157</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -10625,14 +10690,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>60</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30.85</v>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0210</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -10641,14 +10728,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>56</v>
-      </c>
-      <c r="D5" t="n">
-        <v>43.85</v>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>12.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1706</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -10657,13 +10766,1759 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0597</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>12.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7543</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3872</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3415</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2847</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2611</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2051</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>101.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2008</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1857</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>517000</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>517080</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>517100</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>61.00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>517010</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达中证沪港深500交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>95.48</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>160925</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>517170</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏中证沪港深500交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008973</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014163</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>47</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>56</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>60</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30.85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>56</v>
+      </c>
+      <c r="D6" t="n">
+        <v>43.85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>39</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>24.76</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00939-建设银行.xlsx
+++ b/数据整理/stocks/港股/00939-建设银行.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D2" t="n">
-        <v>21.77</v>
+        <v>19.85</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D3" t="n">
-        <v>26.47</v>
+        <v>21.77</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D4" t="n">
-        <v>21.38</v>
+        <v>26.47</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D5" t="n">
-        <v>30.85</v>
+        <v>21.38</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D6" t="n">
-        <v>43.85</v>
+        <v>30.85</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>56</v>
+      </c>
+      <c r="D7" t="n">
+        <v>43.85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>39</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>24.76</v>
       </c>
     </row>
@@ -583,6 +600,2224 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>147.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.6595</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达恒生国企（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.2856</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7167</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9250</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>13.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6745</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4011</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3659</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>13.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3263</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3184</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2894</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝香港大盘（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2072</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1832</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝香港大盘（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>13.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信价值启航混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>13.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>517080</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>517000</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>517100</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159711</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159788</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达中证港股通中国100ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>安信价值启航混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>66.54</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012990</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天弘国证港股通50指数C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014462</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>光大保德信汇佳混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>43.38</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>517010</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>易方达中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浦银安盛沪港深基本面（LOF）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>517780</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>浦银安盛中华交易服务沪深港300ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>160925</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>517170</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>95.47</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012989</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>天弘国证港股通50指数A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014463</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>光大保德信汇佳混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>43.38</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008973</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014163</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2420,7 +4655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4602,7 +6837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6480,7 +8715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8814,7 +11049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10991,7 +13226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00939-建设银行.xlsx
+++ b/数据整理/stocks/港股/00939-建设银行.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>19.85</v>
+        <v>20.65</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D3" t="n">
-        <v>21.77</v>
+        <v>19.85</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D4" t="n">
-        <v>26.47</v>
+        <v>21.77</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D5" t="n">
-        <v>21.38</v>
+        <v>26.47</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D6" t="n">
-        <v>30.85</v>
+        <v>21.38</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D7" t="n">
-        <v>43.85</v>
+        <v>30.85</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>56</v>
+      </c>
+      <c r="D8" t="n">
+        <v>43.85</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>39</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>24.76</v>
       </c>
     </row>
@@ -600,6 +617,1960 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达恒生国企（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.1125</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>163.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.6193</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4164</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3215</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>14.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9180</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5272</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>14.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3382</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3252</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3236</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝香港大盘（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1877</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1848</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>11.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>14.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>14.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>517080</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>517000</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝香港大盘（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>517100</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97.27</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159788</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达中证港股通中国100ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159711</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012990</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘国证港股通50指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>517010</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012989</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天弘国证港股通50指数A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>160925</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>517170</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>96.90</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008973</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014163</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>11.14</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2817,7 +4788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4655,7 +6626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6837,7 +8808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8715,7 +10686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11049,7 +13020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13226,7 +15197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
